--- a/biology/Botanique/Arbre_oxalogène/Arbre_oxalogène.xlsx
+++ b/biology/Botanique/Arbre_oxalogène/Arbre_oxalogène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arbre_oxalog%C3%A8ne</t>
+          <t>Arbre_oxalogène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un arbre oxalogène est un type d'arbre connu pour présenter la "voie oxalate-carbonate" dans le cadre de son métabolisme. Cette voie métabolique forme des ions d'oxalate qui au niveau du sol, en symbioses bactério-fongiques, forment du carbonate de calcium (CaCO3, calcaire) qui est l'une des formes les plus durables de puits de carbone[1].
-Les propriétés de ce type d'arbres ont été découvertes dans les années 1990 par le biogéochimiste Eric Verrecchia[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un arbre oxalogène est un type d'arbre connu pour présenter la "voie oxalate-carbonate" dans le cadre de son métabolisme. Cette voie métabolique forme des ions d'oxalate qui au niveau du sol, en symbioses bactério-fongiques, forment du carbonate de calcium (CaCO3, calcaire) qui est l'une des formes les plus durables de puits de carbone.
+Les propriétés de ce type d'arbres ont été découvertes dans les années 1990 par le biogéochimiste Eric Verrecchia.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arbre_oxalog%C3%A8ne</t>
+          <t>Arbre_oxalogène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La photosynthèse de ces arbres aboutit à la formation, entre autres, d'ion oxalates qui migrent vers les racines de l'arbre. Différents micro-organismes du sol décomposent ces oxalates en ions carbonates. Ces ions carbonates réagissent avec des ions calcium du sol pour donner le carbonate de calcium[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La photosynthèse de ces arbres aboutit à la formation, entre autres, d'ion oxalates qui migrent vers les racines de l'arbre. Différents micro-organismes du sol décomposent ces oxalates en ions carbonates. Ces ions carbonates réagissent avec des ions calcium du sol pour donner le carbonate de calcium. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arbre_oxalog%C3%A8ne</t>
+          <t>Arbre_oxalogène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les arbres oxalogènes, on peut citer la noix-pain et Milicia excelsa (iroko)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les arbres oxalogènes, on peut citer la noix-pain et Milicia excelsa (iroko).
 </t>
         </is>
       </c>
